--- a/Versionado de Documentos/Modelo Actividades/Modelo de Actividades - Devs_lutions (v.3.0).xlsx
+++ b/Versionado de Documentos/Modelo Actividades/Modelo de Actividades - Devs_lutions (v.3.0).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alegv\Documents\Escuela\Administración de Proyectos de Software\App\Dev_lutions\Versionado de Documentos\Modelo Actividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F76159-5B47-4C91-9F80-5590547EAE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275E38B1-7405-4D57-9ECF-ECBC0FC8A000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="102">
   <si>
     <t>Actividades Clave</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>Tiempo Total (Horas)</t>
+  </si>
+  <si>
+    <t>Análisis de Propuestas</t>
   </si>
 </sst>
 </file>
@@ -1105,16 +1108,7 @@
     <xf numFmtId="0" fontId="11" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1139,30 +1133,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1237,9 +1207,6 @@
     <xf numFmtId="0" fontId="9" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1258,9 +1225,6 @@
     <xf numFmtId="0" fontId="18" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1272,6 +1236,45 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1558,7 +1561,7 @@
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="66" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="4"/>
@@ -1748,7 +1751,7 @@
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="67" t="s">
         <v>96</v>
       </c>
       <c r="F7" s="4"/>
@@ -1786,7 +1789,7 @@
       <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="68" t="s">
         <v>97</v>
       </c>
       <c r="F8" s="4"/>
@@ -1900,7 +1903,7 @@
       <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="66" t="s">
         <v>98</v>
       </c>
       <c r="F11" s="4"/>
@@ -2014,7 +2017,7 @@
       <c r="D14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="69" t="s">
         <v>99</v>
       </c>
       <c r="F14" s="4"/>
@@ -30652,8 +30655,8 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:W55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30671,26 +30674,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="89" t="s">
+      <c r="A1" s="77"/>
+      <c r="B1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="80" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92">
+      <c r="A2" s="81">
         <v>1</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="76" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -30707,10 +30710,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="92">
+      <c r="A3" s="81">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="76" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="39" t="s">
@@ -30725,10 +30728,10 @@
       <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="92">
+      <c r="A4" s="81">
         <v>1.2</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="76" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="39" t="s">
@@ -30743,10 +30746,10 @@
       <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="92">
+      <c r="A5" s="81">
         <v>1.3</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="76" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="39" t="s">
@@ -30761,10 +30764,10 @@
       <c r="F5" s="57"/>
     </row>
     <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="92">
+      <c r="A6" s="81">
         <v>2</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="76" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="39" t="s">
@@ -30781,10 +30784,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="92">
+      <c r="A7" s="81">
         <v>2.1</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="76" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="39" t="s">
@@ -30799,10 +30802,10 @@
       <c r="F7" s="57"/>
     </row>
     <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="92">
+      <c r="A8" s="81">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="76" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="39" t="s">
@@ -30817,10 +30820,10 @@
       <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="92">
+      <c r="A9" s="81">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="76" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="39" t="s">
@@ -30835,10 +30838,10 @@
       <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="92">
+      <c r="A10" s="81">
         <v>2.4</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="76" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="39" t="s">
@@ -30853,10 +30856,10 @@
       <c r="F10" s="57"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="92">
+      <c r="A11" s="81">
         <v>2.5</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="76" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="39" t="s">
@@ -30871,10 +30874,10 @@
       <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="92">
+      <c r="A12" s="81">
         <v>3</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="76" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="39" t="s">
@@ -30891,10 +30894,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="92">
+      <c r="A13" s="81">
         <v>3.1</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="76" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="39" t="s">
@@ -30909,10 +30912,10 @@
       <c r="F13" s="57"/>
     </row>
     <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="92">
+      <c r="A14" s="81">
         <v>3.2</v>
       </c>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="76" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="39" t="s">
@@ -30927,10 +30930,10 @@
       <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="92">
+      <c r="A15" s="81">
         <v>4</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="76" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="39" t="s">
@@ -30947,10 +30950,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="92">
+      <c r="A16" s="81">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="76" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="39" t="s">
@@ -30965,10 +30968,10 @@
       <c r="F16" s="57"/>
     </row>
     <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="92">
+      <c r="A17" s="81">
         <v>4.2</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="76" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="39" t="s">
@@ -30983,10 +30986,10 @@
       <c r="F17" s="57"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="92">
+      <c r="A18" s="81">
         <v>5</v>
       </c>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="76" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="39" t="s">
@@ -31003,10 +31006,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="92">
+      <c r="A19" s="81">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="76" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -31021,10 +31024,10 @@
       <c r="F19" s="57"/>
     </row>
     <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="92">
+      <c r="A20" s="81">
         <v>5.2</v>
       </c>
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="76" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="39" t="s">
@@ -31039,10 +31042,10 @@
       <c r="F20" s="57"/>
     </row>
     <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="92">
+      <c r="A21" s="81">
         <v>5.3</v>
       </c>
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="76" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="39" t="s">
@@ -31057,10 +31060,10 @@
       <c r="F21" s="57"/>
     </row>
     <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="92">
+      <c r="A22" s="81">
         <v>5.4</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="76" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="39" t="s">
@@ -31075,10 +31078,10 @@
       <c r="F22" s="57"/>
     </row>
     <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="92">
+      <c r="A23" s="81">
         <v>6</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="76" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="39" t="s">
@@ -31095,10 +31098,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="92">
+      <c r="A24" s="81">
         <v>6.1</v>
       </c>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="76" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="39" t="s">
@@ -31113,10 +31116,10 @@
       <c r="F24" s="57"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="92">
+      <c r="A25" s="81">
         <v>6.2</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="76" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="39" t="s">
@@ -31131,10 +31134,10 @@
       <c r="F25" s="57"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="92">
+      <c r="A26" s="81">
         <v>6.3</v>
       </c>
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="39" t="s">
@@ -31149,10 +31152,10 @@
       <c r="F26" s="57"/>
     </row>
     <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="92">
+      <c r="A27" s="81">
         <v>6.4</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="76" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="39" t="s">
@@ -31167,10 +31170,10 @@
       <c r="F27" s="57"/>
     </row>
     <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="92">
+      <c r="A28" s="81">
         <v>6.5</v>
       </c>
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="76" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="39" t="s">
@@ -31185,10 +31188,10 @@
       <c r="F28" s="57"/>
     </row>
     <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="92">
+      <c r="A29" s="81">
         <v>7</v>
       </c>
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="76" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="39" t="s">
@@ -31205,10 +31208,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="92">
+      <c r="A30" s="81">
         <v>7.1</v>
       </c>
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="76" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="39" t="s">
@@ -31223,10 +31226,10 @@
       <c r="F30" s="57"/>
     </row>
     <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="92">
+      <c r="A31" s="81">
         <v>7.2</v>
       </c>
-      <c r="B31" s="87" t="s">
+      <c r="B31" s="76" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="39" t="s">
@@ -31241,10 +31244,10 @@
       <c r="F31" s="57"/>
     </row>
     <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="92">
+      <c r="A32" s="81">
         <v>7.3</v>
       </c>
-      <c r="B32" s="87" t="s">
+      <c r="B32" s="76" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="39" t="s">
@@ -31259,10 +31262,10 @@
       <c r="F32" s="57"/>
     </row>
     <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="92">
+      <c r="A33" s="81">
         <v>7.4</v>
       </c>
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="76" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="39" t="s">
@@ -31277,10 +31280,10 @@
       <c r="F33" s="57"/>
     </row>
     <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="92">
+      <c r="A34" s="81">
         <v>7.5</v>
       </c>
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="76" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="39" t="s">
@@ -31295,10 +31298,10 @@
       <c r="F34" s="57"/>
     </row>
     <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="92">
+      <c r="A35" s="81">
         <v>8</v>
       </c>
-      <c r="B35" s="87" t="s">
+      <c r="B35" s="76" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="39" t="s">
@@ -31315,10 +31318,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="92">
+      <c r="A36" s="81">
         <v>8.1</v>
       </c>
-      <c r="B36" s="87" t="s">
+      <c r="B36" s="76" t="s">
         <v>67</v>
       </c>
       <c r="C36" s="39" t="s">
@@ -31333,10 +31336,10 @@
       <c r="F36" s="57"/>
     </row>
     <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="92">
+      <c r="A37" s="81">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B37" s="87" t="s">
+      <c r="B37" s="76" t="s">
         <v>69</v>
       </c>
       <c r="C37" s="39" t="s">
@@ -31351,10 +31354,10 @@
       <c r="F37" s="57"/>
     </row>
     <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="92">
+      <c r="A38" s="81">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="76" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="39" t="s">
@@ -31369,10 +31372,10 @@
       <c r="F38" s="57"/>
     </row>
     <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="92">
+      <c r="A39" s="81">
         <v>9</v>
       </c>
-      <c r="B39" s="87" t="s">
+      <c r="B39" s="76" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="39" t="s">
@@ -31389,10 +31392,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="92">
+      <c r="A40" s="81">
         <v>9.1</v>
       </c>
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="76" t="s">
         <v>70</v>
       </c>
       <c r="C40" s="39" t="s">
@@ -31407,10 +31410,10 @@
       <c r="F40" s="57"/>
     </row>
     <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="92">
+      <c r="A41" s="81">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="76" t="s">
         <v>71</v>
       </c>
       <c r="C41" s="39" t="s">
@@ -31425,10 +31428,10 @@
       <c r="F41" s="57"/>
     </row>
     <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="92">
+      <c r="A42" s="81">
         <v>9.3000000000000007</v>
       </c>
-      <c r="B42" s="87" t="s">
+      <c r="B42" s="76" t="s">
         <v>72</v>
       </c>
       <c r="C42" s="39" t="s">
@@ -31443,10 +31446,10 @@
       <c r="F42" s="57"/>
     </row>
     <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="92">
+      <c r="A43" s="81">
         <v>10</v>
       </c>
-      <c r="B43" s="87" t="s">
+      <c r="B43" s="76" t="s">
         <v>20</v>
       </c>
       <c r="C43" s="39" t="s">
@@ -31463,10 +31466,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="92">
+      <c r="A44" s="81">
         <v>11</v>
       </c>
-      <c r="B44" s="87" t="s">
+      <c r="B44" s="76" t="s">
         <v>23</v>
       </c>
       <c r="C44" s="39" t="s">
@@ -31483,10 +31486,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="92">
+      <c r="A45" s="81">
         <v>11.1</v>
       </c>
-      <c r="B45" s="87" t="s">
+      <c r="B45" s="76" t="s">
         <v>74</v>
       </c>
       <c r="C45" s="39" t="s">
@@ -31501,10 +31504,10 @@
       <c r="F45" s="57"/>
     </row>
     <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="92">
+      <c r="A46" s="81">
         <v>12</v>
       </c>
-      <c r="B46" s="87" t="s">
+      <c r="B46" s="76" t="s">
         <v>24</v>
       </c>
       <c r="C46" s="39" t="s">
@@ -31521,10 +31524,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="92">
+      <c r="A47" s="81">
         <v>12.1</v>
       </c>
-      <c r="B47" s="87" t="s">
+      <c r="B47" s="76" t="s">
         <v>75</v>
       </c>
       <c r="C47" s="39" t="s">
@@ -31539,10 +31542,10 @@
       <c r="F47" s="57"/>
     </row>
     <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="92">
+      <c r="A48" s="81">
         <v>12.2</v>
       </c>
-      <c r="B48" s="87" t="s">
+      <c r="B48" s="76" t="s">
         <v>76</v>
       </c>
       <c r="C48" s="39" t="s">
@@ -31557,10 +31560,10 @@
       <c r="F48" s="57"/>
     </row>
     <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="92">
+      <c r="A49" s="81">
         <v>13</v>
       </c>
-      <c r="B49" s="87" t="s">
+      <c r="B49" s="76" t="s">
         <v>25</v>
       </c>
       <c r="C49" s="39" t="s">
@@ -31575,10 +31578,10 @@
       <c r="F49" s="57"/>
     </row>
     <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="93">
+      <c r="A50" s="82">
         <v>13.1</v>
       </c>
-      <c r="B50" s="87" t="s">
+      <c r="B50" s="76" t="s">
         <v>78</v>
       </c>
       <c r="C50" s="39" t="s">
@@ -31593,10 +31596,10 @@
       <c r="F50" s="57"/>
     </row>
     <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="93">
+      <c r="A51" s="82">
         <v>13.2</v>
       </c>
-      <c r="B51" s="87" t="s">
+      <c r="B51" s="76" t="s">
         <v>80</v>
       </c>
       <c r="C51" s="39" t="s">
@@ -31611,10 +31614,10 @@
       <c r="F51" s="57"/>
     </row>
     <row r="52" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="94">
+      <c r="A52" s="83">
         <v>13.3</v>
       </c>
-      <c r="B52" s="87" t="s">
+      <c r="B52" s="76" t="s">
         <v>81</v>
       </c>
       <c r="C52" s="39" t="s">
@@ -31668,8 +31671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB6CD96-FD74-4CEE-82BC-1C0D01F591CA}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31683,135 +31686,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="119"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="106"/>
     </row>
     <row r="2" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82" t="s">
+      <c r="E2" s="109"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82" t="s">
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="83" t="s">
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="P2" s="119"/>
+      <c r="P2" s="106"/>
     </row>
     <row r="3" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="64" t="s">
+      <c r="A3" s="115"/>
+      <c r="B3" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66" t="s">
+      <c r="C3" s="120"/>
+      <c r="D3" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="66" t="s">
+      <c r="K3" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="66" t="s">
+      <c r="L3" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="66" t="s">
+      <c r="M3" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="66" t="s">
+      <c r="N3" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="83"/>
-      <c r="P3" s="119"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="106"/>
     </row>
     <row r="4" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="84">
+      <c r="B4" s="73">
         <v>1</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="75" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="60"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="95" t="s">
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="119">
+      <c r="P4" s="106">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
-      <c r="B5" s="84">
+      <c r="A5" s="113"/>
+      <c r="B5" s="73">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="75" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="60"/>
-      <c r="E5" s="111"/>
+      <c r="E5" s="99"/>
       <c r="F5" s="59"/>
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
@@ -31821,45 +31824,45 @@
       <c r="L5" s="59"/>
       <c r="M5" s="59"/>
       <c r="N5" s="59"/>
-      <c r="O5" s="96" t="s">
+      <c r="O5" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="119"/>
+      <c r="P5" s="106"/>
     </row>
     <row r="6" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="115"/>
-      <c r="B6" s="84">
+      <c r="A6" s="113"/>
+      <c r="B6" s="73">
         <v>1.2</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="75" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="60"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="96" t="s">
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="119"/>
+      <c r="P6" s="106"/>
     </row>
     <row r="7" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="115"/>
-      <c r="B7" s="84">
+      <c r="A7" s="113"/>
+      <c r="B7" s="73">
         <v>1.3</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="75" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="60"/>
-      <c r="E7" s="111"/>
+      <c r="E7" s="99"/>
       <c r="F7" s="59"/>
       <c r="G7" s="59"/>
       <c r="H7" s="59"/>
@@ -31869,47 +31872,47 @@
       <c r="L7" s="59"/>
       <c r="M7" s="59"/>
       <c r="N7" s="59"/>
-      <c r="O7" s="96" t="s">
+      <c r="O7" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="119"/>
+      <c r="P7" s="106"/>
     </row>
     <row r="8" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="115"/>
-      <c r="B8" s="84">
+      <c r="A8" s="113"/>
+      <c r="B8" s="73">
         <v>2</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="75" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="60"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="95" t="s">
+      <c r="E8" s="97"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="119">
+      <c r="P8" s="106">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
-      <c r="B9" s="84">
+      <c r="A9" s="113"/>
+      <c r="B9" s="73">
         <v>2.1</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="75" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="60"/>
-      <c r="E9" s="111"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="59"/>
       <c r="G9" s="59"/>
       <c r="H9" s="59"/>
@@ -31919,45 +31922,45 @@
       <c r="L9" s="59"/>
       <c r="M9" s="59"/>
       <c r="N9" s="59"/>
-      <c r="O9" s="96" t="s">
+      <c r="O9" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="119"/>
+      <c r="P9" s="106"/>
     </row>
     <row r="10" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="115"/>
-      <c r="B10" s="84">
+      <c r="A10" s="113"/>
+      <c r="B10" s="73">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="75" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="60"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="96" t="s">
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="119"/>
+      <c r="P10" s="106"/>
     </row>
     <row r="11" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="84">
+      <c r="A11" s="113"/>
+      <c r="B11" s="73">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="75" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="60"/>
-      <c r="E11" s="111"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="59"/>
       <c r="G11" s="59"/>
       <c r="H11" s="59"/>
@@ -31967,45 +31970,45 @@
       <c r="L11" s="59"/>
       <c r="M11" s="59"/>
       <c r="N11" s="59"/>
-      <c r="O11" s="96" t="s">
+      <c r="O11" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="119"/>
+      <c r="P11" s="106"/>
     </row>
     <row r="12" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
-      <c r="B12" s="84">
+      <c r="A12" s="113"/>
+      <c r="B12" s="73">
         <v>2.4</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="75" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="60"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="96" t="s">
+      <c r="E12" s="97"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="119"/>
+      <c r="P12" s="106"/>
     </row>
     <row r="13" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
-      <c r="B13" s="84">
+      <c r="A13" s="113"/>
+      <c r="B13" s="73">
         <v>2.5</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="75" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="60"/>
-      <c r="E13" s="111"/>
+      <c r="E13" s="99"/>
       <c r="F13" s="59"/>
       <c r="G13" s="59"/>
       <c r="H13" s="59"/>
@@ -32015,47 +32018,47 @@
       <c r="L13" s="59"/>
       <c r="M13" s="59"/>
       <c r="N13" s="59"/>
-      <c r="O13" s="96" t="s">
+      <c r="O13" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="P13" s="119"/>
+      <c r="P13" s="106"/>
     </row>
     <row r="14" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
-      <c r="B14" s="84">
+      <c r="A14" s="113"/>
+      <c r="B14" s="73">
         <v>3</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="75" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="60"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="95" t="s">
+      <c r="E14" s="97"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="119">
+      <c r="P14" s="106">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="115"/>
-      <c r="B15" s="84">
+      <c r="A15" s="113"/>
+      <c r="B15" s="73">
         <v>3.1</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="75" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="60"/>
-      <c r="E15" s="111"/>
+      <c r="E15" s="99"/>
       <c r="F15" s="59"/>
       <c r="G15" s="59"/>
       <c r="H15" s="59"/>
@@ -32065,45 +32068,45 @@
       <c r="L15" s="59"/>
       <c r="M15" s="59"/>
       <c r="N15" s="59"/>
-      <c r="O15" s="96" t="s">
+      <c r="O15" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="119"/>
+      <c r="P15" s="106"/>
     </row>
     <row r="16" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="115"/>
-      <c r="B16" s="84">
+      <c r="A16" s="113"/>
+      <c r="B16" s="73">
         <v>3.2</v>
       </c>
-      <c r="C16" s="86" t="s">
-        <v>40</v>
+      <c r="C16" s="75" t="s">
+        <v>101</v>
       </c>
       <c r="D16" s="60"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="96" t="s">
+      <c r="E16" s="97"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="P16" s="119"/>
+      <c r="P16" s="106"/>
     </row>
     <row r="17" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="115"/>
-      <c r="B17" s="84">
+      <c r="A17" s="113"/>
+      <c r="B17" s="73">
         <v>4</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="75" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="60"/>
-      <c r="E17" s="111"/>
+      <c r="E17" s="99"/>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
       <c r="H17" s="59"/>
@@ -32113,47 +32116,47 @@
       <c r="L17" s="59"/>
       <c r="M17" s="59"/>
       <c r="N17" s="59"/>
-      <c r="O17" s="95" t="s">
+      <c r="O17" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="119">
+      <c r="P17" s="106">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
-      <c r="B18" s="84">
+      <c r="A18" s="113"/>
+      <c r="B18" s="73">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="75" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="60"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="96" t="s">
+      <c r="E18" s="97"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="P18" s="119"/>
+      <c r="P18" s="106"/>
     </row>
     <row r="19" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="115"/>
-      <c r="B19" s="84">
+      <c r="A19" s="113"/>
+      <c r="B19" s="73">
         <v>4.2</v>
       </c>
-      <c r="C19" s="86" t="s">
-        <v>40</v>
+      <c r="C19" s="75" t="s">
+        <v>101</v>
       </c>
       <c r="D19" s="60"/>
-      <c r="E19" s="111"/>
+      <c r="E19" s="99"/>
       <c r="F19" s="59"/>
       <c r="G19" s="59"/>
       <c r="H19" s="59"/>
@@ -32163,49 +32166,49 @@
       <c r="L19" s="59"/>
       <c r="M19" s="59"/>
       <c r="N19" s="59"/>
-      <c r="O19" s="96" t="s">
+      <c r="O19" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="P19" s="119"/>
+      <c r="P19" s="106"/>
     </row>
     <row r="20" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="115"/>
-      <c r="B20" s="84">
+      <c r="A20" s="113"/>
+      <c r="B20" s="73">
         <v>5</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="73"/>
+      <c r="D20" s="70"/>
       <c r="E20" s="61"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="97" t="s">
+      <c r="F20" s="98"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="P20" s="119">
+      <c r="P20" s="106">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="115"/>
-      <c r="B21" s="84">
+      <c r="A21" s="113"/>
+      <c r="B21" s="73">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="75"/>
+      <c r="D21" s="72"/>
       <c r="E21" s="61"/>
       <c r="F21" s="59"/>
-      <c r="G21" s="111"/>
+      <c r="G21" s="99"/>
       <c r="H21" s="59"/>
       <c r="I21" s="59"/>
       <c r="J21" s="59"/>
@@ -32213,47 +32216,47 @@
       <c r="L21" s="59"/>
       <c r="M21" s="59"/>
       <c r="N21" s="59"/>
-      <c r="O21" s="98" t="s">
+      <c r="O21" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="P21" s="119"/>
+      <c r="P21" s="106"/>
     </row>
     <row r="22" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="115"/>
-      <c r="B22" s="84">
+      <c r="A22" s="113"/>
+      <c r="B22" s="73">
         <v>5.2</v>
       </c>
-      <c r="C22" s="86" t="s">
+      <c r="C22" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="73"/>
+      <c r="D22" s="70"/>
       <c r="E22" s="61"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="98" t="s">
+      <c r="F22" s="98"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="P22" s="119"/>
+      <c r="P22" s="106"/>
     </row>
     <row r="23" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="115"/>
-      <c r="B23" s="84">
+      <c r="A23" s="113"/>
+      <c r="B23" s="73">
         <v>5.3</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="75"/>
+      <c r="D23" s="72"/>
       <c r="E23" s="61"/>
       <c r="F23" s="59"/>
-      <c r="G23" s="111"/>
+      <c r="G23" s="99"/>
       <c r="H23" s="59"/>
       <c r="I23" s="59"/>
       <c r="J23" s="59"/>
@@ -32261,47 +32264,47 @@
       <c r="L23" s="59"/>
       <c r="M23" s="59"/>
       <c r="N23" s="59"/>
-      <c r="O23" s="98" t="s">
+      <c r="O23" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="P23" s="119"/>
+      <c r="P23" s="106"/>
     </row>
     <row r="24" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="115"/>
-      <c r="B24" s="84">
+      <c r="A24" s="113"/>
+      <c r="B24" s="73">
         <v>5.4</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="73"/>
+      <c r="D24" s="70"/>
       <c r="E24" s="61"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="98" t="s">
+      <c r="F24" s="98"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="P24" s="119"/>
+      <c r="P24" s="106"/>
     </row>
     <row r="25" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="115"/>
-      <c r="B25" s="84">
+      <c r="A25" s="113"/>
+      <c r="B25" s="73">
         <v>6</v>
       </c>
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="75"/>
-      <c r="E25" s="68"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="61"/>
-      <c r="G25" s="111"/>
+      <c r="G25" s="99"/>
       <c r="H25" s="59"/>
       <c r="I25" s="59"/>
       <c r="J25" s="59"/>
@@ -32309,49 +32312,49 @@
       <c r="L25" s="59"/>
       <c r="M25" s="59"/>
       <c r="N25" s="59"/>
-      <c r="O25" s="97" t="s">
+      <c r="O25" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="P25" s="119">
+      <c r="P25" s="106">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="115"/>
-      <c r="B26" s="84">
+      <c r="A26" s="113"/>
+      <c r="B26" s="73">
         <v>6.1</v>
       </c>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="68"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="65"/>
       <c r="F26" s="61"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="98" t="s">
+      <c r="G26" s="97"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="P26" s="119"/>
+      <c r="P26" s="106"/>
     </row>
     <row r="27" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="115"/>
-      <c r="B27" s="84">
+      <c r="A27" s="113"/>
+      <c r="B27" s="73">
         <v>6.2</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="75"/>
+      <c r="D27" s="72"/>
       <c r="E27" s="61"/>
       <c r="F27" s="61"/>
-      <c r="G27" s="111"/>
+      <c r="G27" s="99"/>
       <c r="H27" s="59"/>
       <c r="I27" s="59"/>
       <c r="J27" s="59"/>
@@ -32359,47 +32362,47 @@
       <c r="L27" s="59"/>
       <c r="M27" s="59"/>
       <c r="N27" s="59"/>
-      <c r="O27" s="98" t="s">
+      <c r="O27" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="P27" s="119"/>
+      <c r="P27" s="106"/>
     </row>
     <row r="28" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="115"/>
-      <c r="B28" s="84">
+      <c r="A28" s="113"/>
+      <c r="B28" s="73">
         <v>6.3</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="73"/>
+      <c r="D28" s="70"/>
       <c r="E28" s="61"/>
       <c r="F28" s="61"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="98" t="s">
+      <c r="G28" s="97"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="P28" s="119"/>
+      <c r="P28" s="106"/>
     </row>
     <row r="29" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="115"/>
-      <c r="B29" s="84">
+      <c r="A29" s="113"/>
+      <c r="B29" s="73">
         <v>6.4</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="75"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="61"/>
       <c r="F29" s="61"/>
-      <c r="G29" s="111"/>
+      <c r="G29" s="99"/>
       <c r="H29" s="59"/>
       <c r="I29" s="59"/>
       <c r="J29" s="59"/>
@@ -32407,44 +32410,44 @@
       <c r="L29" s="59"/>
       <c r="M29" s="59"/>
       <c r="N29" s="59"/>
-      <c r="O29" s="98" t="s">
+      <c r="O29" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="P29" s="119"/>
+      <c r="P29" s="106"/>
     </row>
     <row r="30" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="115"/>
-      <c r="B30" s="84">
+      <c r="A30" s="113"/>
+      <c r="B30" s="73">
         <v>6.5</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="C30" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="73"/>
+      <c r="D30" s="70"/>
       <c r="E30" s="61"/>
       <c r="F30" s="61"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="110"/>
-      <c r="O30" s="97" t="s">
+      <c r="G30" s="97"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="P30" s="119"/>
+      <c r="P30" s="106"/>
     </row>
     <row r="31" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="115"/>
-      <c r="B31" s="84">
+      <c r="A31" s="113"/>
+      <c r="B31" s="73">
         <v>7</v>
       </c>
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="75"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="59"/>
       <c r="F31" s="59"/>
       <c r="G31" s="62"/>
@@ -32453,48 +32456,48 @@
       <c r="J31" s="62"/>
       <c r="K31" s="62"/>
       <c r="L31" s="62"/>
-      <c r="M31" s="111"/>
+      <c r="M31" s="99"/>
       <c r="N31" s="59"/>
-      <c r="O31" s="99" t="s">
+      <c r="O31" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="P31" s="119">
+      <c r="P31" s="106">
         <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="115"/>
-      <c r="B32" s="84">
+      <c r="A32" s="113"/>
+      <c r="B32" s="73">
         <v>7.1</v>
       </c>
-      <c r="C32" s="86" t="s">
+      <c r="C32" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="73"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
       <c r="G32" s="62"/>
       <c r="H32" s="62"/>
       <c r="I32" s="62"/>
       <c r="J32" s="62"/>
       <c r="K32" s="62"/>
       <c r="L32" s="62"/>
-      <c r="M32" s="109"/>
-      <c r="N32" s="110"/>
-      <c r="O32" s="100" t="s">
+      <c r="M32" s="97"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="P32" s="119"/>
+      <c r="P32" s="106"/>
     </row>
     <row r="33" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="115"/>
-      <c r="B33" s="84">
+      <c r="A33" s="113"/>
+      <c r="B33" s="73">
         <v>7.2</v>
       </c>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="75"/>
+      <c r="D33" s="72"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
       <c r="G33" s="62"/>
@@ -32503,46 +32506,46 @@
       <c r="J33" s="63"/>
       <c r="K33" s="63"/>
       <c r="L33" s="63"/>
-      <c r="M33" s="111"/>
+      <c r="M33" s="99"/>
       <c r="N33" s="59"/>
-      <c r="O33" s="100" t="s">
+      <c r="O33" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="P33" s="119"/>
+      <c r="P33" s="106"/>
     </row>
     <row r="34" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="115"/>
-      <c r="B34" s="84">
+      <c r="A34" s="113"/>
+      <c r="B34" s="73">
         <v>7.3</v>
       </c>
-      <c r="C34" s="86" t="s">
+      <c r="C34" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="109"/>
-      <c r="N34" s="110"/>
-      <c r="O34" s="100" t="s">
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="98"/>
+      <c r="O34" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="P34" s="119"/>
+      <c r="P34" s="106"/>
     </row>
     <row r="35" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="115"/>
-      <c r="B35" s="84">
+      <c r="A35" s="113"/>
+      <c r="B35" s="73">
         <v>7.4</v>
       </c>
-      <c r="C35" s="86" t="s">
+      <c r="C35" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="75"/>
+      <c r="D35" s="72"/>
       <c r="E35" s="59"/>
       <c r="F35" s="59"/>
       <c r="G35" s="63"/>
@@ -32551,144 +32554,144 @@
       <c r="J35" s="62"/>
       <c r="K35" s="62"/>
       <c r="L35" s="63"/>
-      <c r="M35" s="111"/>
+      <c r="M35" s="99"/>
       <c r="N35" s="59"/>
-      <c r="O35" s="100" t="s">
+      <c r="O35" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="P35" s="119"/>
+      <c r="P35" s="106"/>
     </row>
     <row r="36" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="115"/>
-      <c r="B36" s="84">
+      <c r="A36" s="113"/>
+      <c r="B36" s="73">
         <v>7.5</v>
       </c>
-      <c r="C36" s="86" t="s">
+      <c r="C36" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="98"/>
       <c r="K36" s="62"/>
       <c r="L36" s="62"/>
-      <c r="M36" s="109"/>
-      <c r="N36" s="110"/>
-      <c r="O36" s="100" t="s">
+      <c r="M36" s="97"/>
+      <c r="N36" s="98"/>
+      <c r="O36" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="P36" s="119"/>
+      <c r="P36" s="106"/>
     </row>
     <row r="37" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="115"/>
-      <c r="B37" s="84">
+      <c r="A37" s="113"/>
+      <c r="B37" s="73">
         <v>8</v>
       </c>
-      <c r="C37" s="86" t="s">
+      <c r="C37" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="75"/>
+      <c r="D37" s="72"/>
       <c r="E37" s="59"/>
       <c r="F37" s="59"/>
       <c r="G37" s="59"/>
       <c r="H37" s="59"/>
       <c r="I37" s="59"/>
       <c r="J37" s="59"/>
-      <c r="K37" s="112"/>
-      <c r="L37" s="112"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="100"/>
       <c r="M37" s="59"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="101" t="s">
+      <c r="N37" s="99"/>
+      <c r="O37" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="P37" s="119">
+      <c r="P37" s="106">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="115"/>
-      <c r="B38" s="84">
+      <c r="A38" s="113"/>
+      <c r="B38" s="73">
         <v>8.1</v>
       </c>
-      <c r="C38" s="86" t="s">
+      <c r="C38" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="112"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="110"/>
-      <c r="N38" s="109"/>
-      <c r="O38" s="102" t="s">
+      <c r="D38" s="70"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="P38" s="119"/>
+      <c r="P38" s="106"/>
     </row>
     <row r="39" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="115"/>
-      <c r="B39" s="84">
+      <c r="A39" s="113"/>
+      <c r="B39" s="73">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C39" s="86" t="s">
+      <c r="C39" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="75"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="59"/>
       <c r="F39" s="59"/>
       <c r="G39" s="59"/>
       <c r="H39" s="59"/>
       <c r="I39" s="59"/>
       <c r="J39" s="59"/>
-      <c r="K39" s="112"/>
-      <c r="L39" s="112"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="100"/>
       <c r="M39" s="59"/>
-      <c r="N39" s="111"/>
-      <c r="O39" s="102" t="s">
+      <c r="N39" s="99"/>
+      <c r="O39" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="P39" s="119"/>
+      <c r="P39" s="106"/>
     </row>
     <row r="40" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="115"/>
-      <c r="B40" s="84">
+      <c r="A40" s="113"/>
+      <c r="B40" s="73">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C40" s="86" t="s">
+      <c r="C40" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="73"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110"/>
-      <c r="L40" s="112"/>
-      <c r="M40" s="110"/>
-      <c r="N40" s="109"/>
-      <c r="O40" s="102" t="s">
+      <c r="D40" s="70"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="98"/>
+      <c r="N40" s="97"/>
+      <c r="O40" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="P40" s="119"/>
+      <c r="P40" s="106"/>
     </row>
     <row r="41" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="115"/>
-      <c r="B41" s="84">
+      <c r="A41" s="113"/>
+      <c r="B41" s="73">
         <v>9</v>
       </c>
-      <c r="C41" s="86" t="s">
+      <c r="C41" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="75"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="59"/>
       <c r="F41" s="59"/>
       <c r="G41" s="59"/>
@@ -32697,48 +32700,48 @@
       <c r="J41" s="59"/>
       <c r="K41" s="59"/>
       <c r="L41" s="59"/>
-      <c r="M41" s="112"/>
-      <c r="N41" s="111"/>
-      <c r="O41" s="101" t="s">
+      <c r="M41" s="100"/>
+      <c r="N41" s="99"/>
+      <c r="O41" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="P41" s="119">
+      <c r="P41" s="106">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="115"/>
-      <c r="B42" s="84">
+      <c r="A42" s="113"/>
+      <c r="B42" s="73">
         <v>9.1</v>
       </c>
-      <c r="C42" s="86" t="s">
+      <c r="C42" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="73"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="112"/>
-      <c r="N42" s="109"/>
-      <c r="O42" s="102" t="s">
+      <c r="D42" s="70"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="98"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="100"/>
+      <c r="N42" s="97"/>
+      <c r="O42" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="P42" s="119"/>
+      <c r="P42" s="106"/>
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="115"/>
-      <c r="B43" s="84">
+      <c r="A43" s="113"/>
+      <c r="B43" s="73">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C43" s="86" t="s">
+      <c r="C43" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="75"/>
+      <c r="D43" s="72"/>
       <c r="E43" s="59"/>
       <c r="F43" s="59"/>
       <c r="G43" s="59"/>
@@ -32747,46 +32750,46 @@
       <c r="J43" s="59"/>
       <c r="K43" s="59"/>
       <c r="L43" s="59"/>
-      <c r="M43" s="112"/>
-      <c r="N43" s="111"/>
-      <c r="O43" s="102" t="s">
+      <c r="M43" s="100"/>
+      <c r="N43" s="99"/>
+      <c r="O43" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="P43" s="119"/>
+      <c r="P43" s="106"/>
     </row>
     <row r="44" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="115"/>
-      <c r="B44" s="84">
+      <c r="A44" s="113"/>
+      <c r="B44" s="73">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C44" s="86" t="s">
+      <c r="C44" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="73"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
-      <c r="K44" s="110"/>
-      <c r="L44" s="110"/>
-      <c r="M44" s="112"/>
-      <c r="N44" s="109"/>
-      <c r="O44" s="102" t="s">
+      <c r="D44" s="70"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="97"/>
+      <c r="O44" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="P44" s="119"/>
+      <c r="P44" s="106"/>
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="115"/>
-      <c r="B45" s="84">
+      <c r="A45" s="113"/>
+      <c r="B45" s="73">
         <v>10</v>
       </c>
-      <c r="C45" s="86" t="s">
+      <c r="C45" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="74"/>
+      <c r="D45" s="71"/>
       <c r="E45" s="60"/>
       <c r="F45" s="60"/>
       <c r="G45" s="60"/>
@@ -32797,48 +32800,48 @@
       <c r="L45" s="60"/>
       <c r="M45" s="60"/>
       <c r="N45" s="60"/>
-      <c r="O45" s="95" t="s">
+      <c r="O45" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="P45" s="119">
+      <c r="P45" s="106">
         <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="115"/>
-      <c r="B46" s="84">
+      <c r="A46" s="113"/>
+      <c r="B46" s="73">
         <v>11</v>
       </c>
-      <c r="C46" s="86" t="s">
+      <c r="C46" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="73"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="110"/>
-      <c r="L46" s="110"/>
-      <c r="M46" s="113"/>
-      <c r="N46" s="110"/>
-      <c r="O46" s="103" t="s">
+      <c r="D46" s="70"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="98"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="98"/>
+      <c r="L46" s="98"/>
+      <c r="M46" s="101"/>
+      <c r="N46" s="98"/>
+      <c r="O46" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="P46" s="119">
+      <c r="P46" s="106">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="115"/>
-      <c r="B47" s="84">
+      <c r="A47" s="113"/>
+      <c r="B47" s="73">
         <v>11.1</v>
       </c>
-      <c r="C47" s="86" t="s">
+      <c r="C47" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="75"/>
+      <c r="D47" s="72"/>
       <c r="E47" s="59"/>
       <c r="F47" s="59"/>
       <c r="G47" s="59"/>
@@ -32847,48 +32850,48 @@
       <c r="J47" s="59"/>
       <c r="K47" s="59"/>
       <c r="L47" s="59"/>
-      <c r="M47" s="113"/>
+      <c r="M47" s="101"/>
       <c r="N47" s="59"/>
-      <c r="O47" s="104" t="s">
+      <c r="O47" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="P47" s="119"/>
+      <c r="P47" s="106"/>
     </row>
     <row r="48" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="115"/>
-      <c r="B48" s="84">
+      <c r="A48" s="113"/>
+      <c r="B48" s="73">
         <v>12</v>
       </c>
-      <c r="C48" s="86" t="s">
+      <c r="C48" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="73"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="110"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
-      <c r="K48" s="110"/>
-      <c r="L48" s="110"/>
-      <c r="M48" s="110"/>
-      <c r="N48" s="114"/>
-      <c r="O48" s="103" t="s">
+      <c r="D48" s="70"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
+      <c r="K48" s="98"/>
+      <c r="L48" s="98"/>
+      <c r="M48" s="98"/>
+      <c r="N48" s="102"/>
+      <c r="O48" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="P48" s="119">
+      <c r="P48" s="106">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="115"/>
-      <c r="B49" s="84">
+      <c r="A49" s="113"/>
+      <c r="B49" s="73">
         <v>12.1</v>
       </c>
-      <c r="C49" s="86" t="s">
+      <c r="C49" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="75"/>
+      <c r="D49" s="72"/>
       <c r="E49" s="59"/>
       <c r="F49" s="59"/>
       <c r="G49" s="59"/>
@@ -32898,45 +32901,45 @@
       <c r="K49" s="59"/>
       <c r="L49" s="59"/>
       <c r="M49" s="59"/>
-      <c r="N49" s="114"/>
-      <c r="O49" s="104" t="s">
+      <c r="N49" s="102"/>
+      <c r="O49" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="P49" s="119"/>
+      <c r="P49" s="106"/>
     </row>
     <row r="50" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="115"/>
-      <c r="B50" s="84">
+      <c r="A50" s="113"/>
+      <c r="B50" s="73">
         <v>12.2</v>
       </c>
-      <c r="C50" s="86" t="s">
+      <c r="C50" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="73"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="110"/>
-      <c r="I50" s="110"/>
-      <c r="J50" s="110"/>
-      <c r="K50" s="110"/>
-      <c r="L50" s="110"/>
-      <c r="M50" s="110"/>
-      <c r="N50" s="114"/>
-      <c r="O50" s="104" t="s">
+      <c r="D50" s="70"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="98"/>
+      <c r="L50" s="98"/>
+      <c r="M50" s="98"/>
+      <c r="N50" s="102"/>
+      <c r="O50" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="P50" s="119"/>
+      <c r="P50" s="106"/>
     </row>
     <row r="51" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="115"/>
-      <c r="B51" s="84">
+      <c r="A51" s="113"/>
+      <c r="B51" s="73">
         <v>13</v>
       </c>
-      <c r="C51" s="86" t="s">
+      <c r="C51" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="75"/>
+      <c r="D51" s="72"/>
       <c r="E51" s="59"/>
       <c r="F51" s="59"/>
       <c r="G51" s="59"/>
@@ -32947,44 +32950,44 @@
       <c r="L51" s="59"/>
       <c r="M51" s="59"/>
       <c r="N51" s="59"/>
-      <c r="O51" s="105" t="s">
+      <c r="O51" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="P51" s="119"/>
+      <c r="P51" s="106"/>
     </row>
     <row r="52" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="115"/>
-      <c r="B52" s="85">
+      <c r="A52" s="113"/>
+      <c r="B52" s="74">
         <v>13.1</v>
       </c>
-      <c r="C52" s="86" t="s">
+      <c r="C52" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="110"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="110"/>
-      <c r="H52" s="110"/>
-      <c r="I52" s="110"/>
-      <c r="J52" s="110"/>
-      <c r="K52" s="110"/>
-      <c r="L52" s="110"/>
-      <c r="M52" s="110"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="98"/>
+      <c r="H52" s="98"/>
+      <c r="I52" s="98"/>
+      <c r="J52" s="98"/>
+      <c r="K52" s="98"/>
+      <c r="L52" s="98"/>
+      <c r="M52" s="98"/>
       <c r="N52" s="59"/>
-      <c r="O52" s="106" t="s">
+      <c r="O52" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="P52" s="119"/>
+      <c r="P52" s="106"/>
     </row>
     <row r="53" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="115"/>
-      <c r="B53" s="85">
+      <c r="A53" s="113"/>
+      <c r="B53" s="74">
         <v>13.2</v>
       </c>
-      <c r="C53" s="86" t="s">
+      <c r="C53" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="D53" s="75"/>
+      <c r="D53" s="72"/>
       <c r="E53" s="59"/>
       <c r="F53" s="59"/>
       <c r="G53" s="59"/>
@@ -32995,41 +32998,41 @@
       <c r="L53" s="59"/>
       <c r="M53" s="59"/>
       <c r="N53" s="59"/>
-      <c r="O53" s="107" t="s">
+      <c r="O53" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="P53" s="119"/>
+      <c r="P53" s="106"/>
     </row>
     <row r="54" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="115"/>
-      <c r="B54" s="85">
+      <c r="A54" s="113"/>
+      <c r="B54" s="74">
         <v>13.3</v>
       </c>
-      <c r="C54" s="86" t="s">
+      <c r="C54" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="73"/>
-      <c r="E54" s="110"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="110"/>
-      <c r="I54" s="110"/>
-      <c r="J54" s="110"/>
-      <c r="K54" s="110"/>
-      <c r="L54" s="110"/>
-      <c r="M54" s="110"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="98"/>
+      <c r="G54" s="98"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="98"/>
+      <c r="L54" s="98"/>
+      <c r="M54" s="98"/>
       <c r="N54" s="59"/>
-      <c r="O54" s="116" t="s">
+      <c r="O54" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="P54" s="120"/>
+      <c r="P54" s="107"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O55" s="118">
+      <c r="O55" s="105">
         <f>SUM(P48,P46,P45,P41,P37,P31,P25,P20,P17,P14,P8,P4)</f>
         <v>473</v>
       </c>
-      <c r="P55" s="117" t="s">
+      <c r="P55" s="104" t="s">
         <v>82</v>
       </c>
     </row>
